--- a/data/trans_orig/P1806_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6EEABB5-778C-4CF5-BA4E-7C48A47F349C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E7E8BB-DFE8-408B-80D3-DB259FEC171E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDED4A3B-8E90-42A3-B179-048CBF8BC66F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{361052E0-32E7-48D7-A600-62B2B7436D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un podólogo en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>4,19%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>No</t>
@@ -113,19 +113,19 @@
     <t>95,81%</t>
   </si>
   <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>97,64%</t>
   </si>
   <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -134,55 +134,49 @@
     <t>1,29%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>99,35%</t>
   </si>
   <si>
     <t>97,09%</t>
   </si>
   <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -191,55 +185,55 @@
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>97,86%</t>
   </si>
   <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -248,106 +242,106 @@
     <t>3,77%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
   <si>
     <t>96,23%</t>
   </si>
   <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
   </si>
   <si>
     <t>94,14%</t>
   </si>
   <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
   </si>
   <si>
     <t>2,45%</t>
@@ -356,16 +350,7 @@
     <t>1,96%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>4,5%</t>
   </si>
   <si>
     <t>3,88%</t>
@@ -380,19 +365,10 @@
     <t>97,55%</t>
   </si>
   <si>
-    <t>96,9%</t>
-  </si>
-  <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>95,5%</t>
   </si>
   <si>
     <t>96,12%</t>
@@ -816,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7F4531-F1B8-4E33-B20D-77DE99EBDF14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EBF281-F509-4A01-B3EE-C4782BED7B42}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1101,7 +1077,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -1110,13 +1086,13 @@
         <v>17237</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -1125,13 +1101,13 @@
         <v>24308</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1146,13 +1122,13 @@
         <v>542752</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>963</v>
@@ -1161,13 +1137,13 @@
         <v>575725</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>1564</v>
@@ -1176,13 +1152,13 @@
         <v>1118477</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1238,7 +1214,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1250,13 +1226,13 @@
         <v>13529</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -1265,13 +1241,13 @@
         <v>31394</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -1280,13 +1256,13 @@
         <v>44923</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1301,13 +1277,13 @@
         <v>1025719</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>1466</v>
@@ -1316,13 +1292,13 @@
         <v>1028080</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>2415</v>
@@ -1331,13 +1307,13 @@
         <v>2053799</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,7 +1369,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1405,13 +1381,13 @@
         <v>27498</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -1420,13 +1396,13 @@
         <v>51204</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -1435,13 +1411,13 @@
         <v>78702</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1456,13 +1432,13 @@
         <v>701274</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>977</v>
@@ -1471,13 +1447,13 @@
         <v>822542</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1628</v>
@@ -1486,13 +1462,13 @@
         <v>1523816</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,7 +1524,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1560,13 +1536,13 @@
         <v>34956</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
@@ -1575,13 +1551,13 @@
         <v>91026</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>185</v>
@@ -1590,13 +1566,13 @@
         <v>125983</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,13 +1587,13 @@
         <v>930447</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>1417</v>
@@ -1626,13 +1602,13 @@
         <v>1058680</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>2382</v>
@@ -1641,13 +1617,13 @@
         <v>1989126</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,13 +1691,13 @@
         <v>83055</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>303</v>
@@ -1730,13 +1706,13 @@
         <v>196343</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="M19" s="7">
         <v>395</v>
@@ -1745,13 +1721,13 @@
         <v>279397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,13 +1742,13 @@
         <v>3302173</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>5059</v>
@@ -1781,13 +1757,13 @@
         <v>3610279</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>8343</v>
@@ -1796,13 +1772,13 @@
         <v>6912453</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,7 +1834,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1806_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E7E8BB-DFE8-408B-80D3-DB259FEC171E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D430EDD-FC8E-4E54-8677-93ACDF9AF837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{361052E0-32E7-48D7-A600-62B2B7436D0B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7FCBDDD8-947D-487F-A2A0-73C04E4DF559}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -128,7 +128,7 @@
     <t>99,14%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,29%</t>
@@ -179,7 +179,7 @@
     <t>98,48%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,3%</t>
@@ -236,7 +236,7 @@
     <t>98,36%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>3,77%</t>
@@ -792,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EBF281-F509-4A01-B3EE-C4782BED7B42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FC3A44-1CDC-4390-A196-03B207FF3E1D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P1806_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D430EDD-FC8E-4E54-8677-93ACDF9AF837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38B43967-DBDB-4368-8721-36ED8842786B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7FCBDDD8-947D-487F-A2A0-73C04E4DF559}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F4A168F-0B0A-4605-9A27-A366A4222E80}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="123">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un podólogo en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -83,157 +83,163 @@
     <t>4,19%</t>
   </si>
   <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>97,86%</t>
   </si>
   <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -242,133 +248,151 @@
     <t>3,77%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>96,38%</t>
   </si>
   <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>96,12%</t>
@@ -792,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FC3A44-1CDC-4390-A196-03B207FF3E1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77858513-0445-4D34-B3F4-D2E667644176}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1077,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -1086,13 +1110,13 @@
         <v>17237</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -1101,13 +1125,13 @@
         <v>24308</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1122,13 +1146,13 @@
         <v>542752</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>963</v>
@@ -1137,13 +1161,13 @@
         <v>575725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>1564</v>
@@ -1152,13 +1176,13 @@
         <v>1118477</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1214,7 +1238,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1226,13 +1250,13 @@
         <v>13529</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -1241,13 +1265,13 @@
         <v>31394</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -1256,13 +1280,13 @@
         <v>44923</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1277,13 +1301,13 @@
         <v>1025719</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>1466</v>
@@ -1292,13 +1316,13 @@
         <v>1028080</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>2415</v>
@@ -1307,13 +1331,13 @@
         <v>2053799</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1369,7 +1393,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1381,13 +1405,13 @@
         <v>27498</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -1396,13 +1420,13 @@
         <v>51204</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -1411,13 +1435,13 @@
         <v>78702</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1432,13 +1456,13 @@
         <v>701274</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>977</v>
@@ -1447,13 +1471,13 @@
         <v>822542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1628</v>
@@ -1462,13 +1486,13 @@
         <v>1523816</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1524,7 +1548,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1536,13 +1560,13 @@
         <v>34956</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
@@ -1551,13 +1575,13 @@
         <v>91026</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>185</v>
@@ -1566,13 +1590,13 @@
         <v>125983</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,13 +1611,13 @@
         <v>930447</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>1417</v>
@@ -1602,13 +1626,13 @@
         <v>1058680</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>2382</v>
@@ -1617,13 +1641,13 @@
         <v>1989126</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1691,13 +1715,13 @@
         <v>83055</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>303</v>
@@ -1706,13 +1730,13 @@
         <v>196343</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>395</v>
@@ -1721,13 +1745,13 @@
         <v>279397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1742,13 +1766,13 @@
         <v>3302173</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>5059</v>
@@ -1757,13 +1781,13 @@
         <v>3610279</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>8343</v>
@@ -1772,13 +1796,13 @@
         <v>6912453</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,7 +1858,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1806_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38B43967-DBDB-4368-8721-36ED8842786B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F245093-4B4E-42DA-84B1-CA4BDE87DC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F4A168F-0B0A-4605-9A27-A366A4222E80}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{68551BEC-0B94-4D6E-A1B1-E4DAA2C99157}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un podólogo en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -65,240 +65,186 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
@@ -308,100 +254,106 @@
     <t>2,57%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>96,38%</t>
   </si>
   <si>
+    <t>95,03%</t>
+  </si>
+  <si>
     <t>97,43%</t>
   </si>
   <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77858513-0445-4D34-B3F4-D2E667644176}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B36227-EAC7-461A-9C7A-B6B9691D2FD3}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -934,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6804</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -949,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="I4" s="7">
-        <v>5481</v>
+        <v>21580</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -964,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="N4" s="7">
-        <v>5481</v>
+        <v>28384</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -985,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>118</v>
+        <v>719</v>
       </c>
       <c r="D5" s="7">
-        <v>101982</v>
+        <v>628637</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1000,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>236</v>
+        <v>1199</v>
       </c>
       <c r="I5" s="7">
-        <v>125252</v>
+        <v>654172</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1015,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>354</v>
+        <v>1918</v>
       </c>
       <c r="N5" s="7">
-        <v>227234</v>
+        <v>1282810</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1036,102 +988,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1969</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1311194</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>7071</v>
+        <v>13133</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I7" s="7">
-        <v>17237</v>
+        <v>29130</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="N7" s="7">
-        <v>24308</v>
+        <v>42263</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1140,49 +1092,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>601</v>
+        <v>949</v>
       </c>
       <c r="D8" s="7">
-        <v>542752</v>
+        <v>1179731</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>963</v>
+        <v>1466</v>
       </c>
       <c r="I8" s="7">
-        <v>575725</v>
+        <v>928976</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1564</v>
+        <v>2415</v>
       </c>
       <c r="N8" s="7">
-        <v>1118477</v>
+        <v>2108708</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1191,102 +1143,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>13529</v>
+        <v>26117</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I10" s="7">
-        <v>31394</v>
+        <v>46067</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="N10" s="7">
-        <v>44923</v>
+        <v>72184</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1295,49 +1247,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>949</v>
+        <v>651</v>
       </c>
       <c r="D11" s="7">
-        <v>1025719</v>
+        <v>678563</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1466</v>
+        <v>977</v>
       </c>
       <c r="I11" s="7">
-        <v>1028080</v>
+        <v>886733</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>2415</v>
+        <v>1628</v>
       </c>
       <c r="N11" s="7">
-        <v>2053799</v>
+        <v>1565296</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1346,102 +1298,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>932800</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1722</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1637480</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7">
-        <v>27498</v>
+        <v>33573</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="I13" s="7">
-        <v>51204</v>
+        <v>82619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="N13" s="7">
-        <v>78702</v>
+        <v>116192</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1450,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>651</v>
+        <v>965</v>
       </c>
       <c r="D14" s="7">
-        <v>701274</v>
+        <v>893258</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>977</v>
+        <v>1417</v>
       </c>
       <c r="I14" s="7">
-        <v>822542</v>
+        <v>1011635</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1628</v>
+        <v>2382</v>
       </c>
       <c r="N14" s="7">
-        <v>1523816</v>
+        <v>1904893</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1501,63 +1453,63 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1561</v>
       </c>
       <c r="I15" s="7">
-        <v>873746</v>
+        <v>1094254</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1722</v>
+        <v>2567</v>
       </c>
       <c r="N15" s="7">
-        <v>1602518</v>
+        <v>2021085</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D16" s="7">
-        <v>34956</v>
+        <v>79627</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -1566,37 +1518,37 @@
         <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>144</v>
+        <v>303</v>
       </c>
       <c r="I16" s="7">
-        <v>91026</v>
+        <v>179396</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>185</v>
+        <v>395</v>
       </c>
       <c r="N16" s="7">
-        <v>125983</v>
+        <v>259023</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>965</v>
+        <v>3284</v>
       </c>
       <c r="D17" s="7">
-        <v>930447</v>
+        <v>3380190</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>1417</v>
+        <v>5059</v>
       </c>
       <c r="I17" s="7">
-        <v>1058680</v>
+        <v>3481517</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>2382</v>
+        <v>8343</v>
       </c>
       <c r="N17" s="7">
-        <v>1989126</v>
+        <v>6861707</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,217 +1608,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1561</v>
+        <v>5362</v>
       </c>
       <c r="I18" s="7">
-        <v>1149706</v>
+        <v>3660913</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2567</v>
+        <v>8738</v>
       </c>
       <c r="N18" s="7">
-        <v>2115109</v>
+        <v>7120730</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>92</v>
-      </c>
-      <c r="D19" s="7">
-        <v>83055</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="7">
-        <v>303</v>
-      </c>
-      <c r="I19" s="7">
-        <v>196343</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>395</v>
-      </c>
-      <c r="N19" s="7">
-        <v>279397</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3284</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3302173</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5059</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3610279</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8343</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6912453</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5362</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3806622</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8738</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7191850</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
